--- a/template_examples/participants_annotations_template.xlsx
+++ b/template_examples/participants_annotations_template.xlsx
@@ -1,186 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78DA771-FC89-E448-B244-E0951A49D4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="32760" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1480" yWindow="460" windowWidth="32760" windowHeight="21140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="metadata" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="metadata">metadata!$C$5:$V$102</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>SiteNumber</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Lung</t>
-  </si>
-  <si>
-    <t>ARM C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Disease progression on study</t>
-  </si>
-  <si>
-    <t>Non-resp</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>No C-B</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>WI020</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>ECOG_PS</t>
-  </si>
-  <si>
-    <t>Prior surgery</t>
-  </si>
-  <si>
-    <t>prior RT</t>
-  </si>
-  <si>
-    <t>number prior treatments</t>
-  </si>
-  <si>
-    <t>BEST_RESPponse</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Clinical benefit</t>
-  </si>
-  <si>
-    <t>prog1=Y)ression (</t>
-  </si>
-  <si>
-    <t>days to progression</t>
-  </si>
-  <si>
-    <t>died (1=Y)</t>
-  </si>
-  <si>
-    <t>overall survival</t>
-  </si>
-  <si>
-    <t>number days to response</t>
-  </si>
-  <si>
-    <t>reason off treatment</t>
-  </si>
-  <si>
-    <t>CTTTP00</t>
-  </si>
-  <si>
-    <t>cimac participant id</t>
-  </si>
-  <si>
-    <t>#h</t>
-  </si>
-  <si>
-    <t>#d</t>
-  </si>
-  <si>
-    <t>#p</t>
-  </si>
-  <si>
-    <t>Protocol identifier</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>#t</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS annotations</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -199,23 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -515,7 +364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="253" workbookViewId="0">
@@ -524,169 +377,257 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" min="1" max="1"/>
+    <col width="15.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.33203125" customWidth="1" min="3" max="3"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>#t</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PARTICIPANTS annotations</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>#p</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Protocol identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>test_prism_trial_id</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#mh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>#h</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cimac participant id</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SiteNumber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>arm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECOG_PS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Prior surgery</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>prior RT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>number prior treatments</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>reason off treatment</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>BEST_RESPponse</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Clinical benefit</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>prog1=Y)ression (</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>days to progression</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>died (1=Y)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>overall survival</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>number days to response</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#d</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CTTTP00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WI020</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lung</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ARM C</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>52</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Disease progression on study</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Non-resp</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No C-B</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6">
+      <c r="S6" t="n">
+        <v>58</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>58</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/template_examples/participants_annotations_template.xlsx
+++ b/template_examples/participants_annotations_template.xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="metadata">metadata!$C$5:$V$102</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -372,7 +372,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="253" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -386,7 +386,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -398,7 +398,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -416,14 +416,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">

--- a/template_examples/participants_annotations_template.xlsx
+++ b/template_examples/participants_annotations_template.xlsx
@@ -377,7 +377,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col width="10.83203125" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.33203125" customWidth="1" min="3" max="3"/>
     <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
@@ -412,7 +412,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>

--- a/template_examples/participants_annotations_template.xlsx
+++ b/template_examples/participants_annotations_template.xlsx
@@ -1,186 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78DA771-FC89-E448-B244-E0951A49D4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="32760" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1480" yWindow="460" windowWidth="32760" windowHeight="21140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="metadata" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="metadata">metadata!$C$5:$V$102</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>SiteNumber</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Lung</t>
-  </si>
-  <si>
-    <t>ARM C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Disease progression on study</t>
-  </si>
-  <si>
-    <t>Non-resp</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>No C-B</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>WI020</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>ECOG_PS</t>
-  </si>
-  <si>
-    <t>Prior surgery</t>
-  </si>
-  <si>
-    <t>prior RT</t>
-  </si>
-  <si>
-    <t>number prior treatments</t>
-  </si>
-  <si>
-    <t>BEST_RESPponse</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Clinical benefit</t>
-  </si>
-  <si>
-    <t>prog1=Y)ression (</t>
-  </si>
-  <si>
-    <t>days to progression</t>
-  </si>
-  <si>
-    <t>died (1=Y)</t>
-  </si>
-  <si>
-    <t>overall survival</t>
-  </si>
-  <si>
-    <t>number days to response</t>
-  </si>
-  <si>
-    <t>reason off treatment</t>
-  </si>
-  <si>
-    <t>CTTTP00</t>
-  </si>
-  <si>
-    <t>cimac participant id</t>
-  </si>
-  <si>
-    <t>#h</t>
-  </si>
-  <si>
-    <t>#d</t>
-  </si>
-  <si>
-    <t>#p</t>
-  </si>
-  <si>
-    <t>Protocol identifier</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>#t</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS annotations</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -199,23 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -515,178 +364,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="253" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.33203125" customWidth="1" min="3" max="3"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>#title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PARTICIPANTS annotations</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>#preamble</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Protocol identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>test_prism_trial_id</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#skip</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>#header</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cimac participant id</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SiteNumber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>arm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECOG_PS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Prior surgery</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>prior RT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>number prior treatments</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>reason off treatment</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>BEST_RESPponse</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Clinical benefit</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>prog1=Y)ression (</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>days to progression</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>died (1=Y)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>overall survival</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>number days to response</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#data</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CTTTP00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WI020</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lung</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ARM C</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>52</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Disease progression on study</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Non-resp</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No C-B</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6">
+      <c r="S6" t="n">
+        <v>58</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>58</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>